--- a/data/genre_title.xlsx
+++ b/data/genre_title.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10713"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10810"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/adriantan/Desktop/Professional/R Projects/Project X/project_x/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B33C1732-9A6F-EC41-8CB5-DFF1CD213BF2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A9EB334-E5B6-F340-BEA4-C4CD179346E1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="80" yWindow="460" windowWidth="25440" windowHeight="15000" xr2:uid="{8961D13B-B238-8142-8252-4568CFFB0DEB}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="37">
   <si>
     <t>Title</t>
   </si>
@@ -68,9 +68,6 @@
     <t>Coco</t>
   </si>
   <si>
-    <t>Adventure</t>
-  </si>
-  <si>
     <t>Dunkirk</t>
   </si>
   <si>
@@ -135,6 +132,18 @@
   </si>
   <si>
     <t>Wonder Woman</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Superhero </t>
+  </si>
+  <si>
+    <t>Children</t>
+  </si>
+  <si>
+    <t>War</t>
+  </si>
+  <si>
+    <t>Musical</t>
   </si>
 </sst>
 </file>
@@ -489,7 +498,7 @@
   <dimension ref="A1:B26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -510,7 +519,7 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>3</v>
+        <v>33</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
@@ -534,7 +543,7 @@
         <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>3</v>
+        <v>33</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
@@ -550,28 +559,28 @@
         <v>10</v>
       </c>
       <c r="B7" t="s">
-        <v>11</v>
+        <v>34</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B8" t="s">
-        <v>3</v>
+        <v>35</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B9" t="s">
-        <v>14</v>
+        <v>34</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B10" t="s">
         <v>3</v>
@@ -579,47 +588,47 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B11" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12" t="s">
         <v>17</v>
-      </c>
-      <c r="B12" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B13" t="s">
-        <v>11</v>
+        <v>34</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B14" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B15" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B16" t="s">
         <v>7</v>
@@ -627,7 +636,7 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B17" t="s">
         <v>3</v>
@@ -635,63 +644,63 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" t="s">
         <v>24</v>
-      </c>
-      <c r="B18" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B19" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B20" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B21" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B22" t="s">
-        <v>5</v>
+        <v>36</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B23" t="s">
-        <v>14</v>
+        <v>34</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B24" t="s">
-        <v>25</v>
+        <v>7</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B25" t="s">
         <v>5</v>
@@ -699,13 +708,14 @@
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
+        <v>32</v>
+      </c>
+      <c r="B26" t="s">
         <v>33</v>
-      </c>
-      <c r="B26" t="s">
-        <v>3</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>